--- a/medicine/Enfance/Picotin_(livres_pour_enfants)/Picotin_(livres_pour_enfants).xlsx
+++ b/medicine/Enfance/Picotin_(livres_pour_enfants)/Picotin_(livres_pour_enfants).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,18 +490,20 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Picotin est le nom du héros principal, un petit âne, d'un ensemble de livres pour enfants, de la collection Les Albums roses. Les illustrations sont de Romain Simon. 
-Picotin est un petit âne tout noir. Il a de longues oreilles, un museau gris et une langue rose.  Et il gambade joyeusement dans un pré[1].
+Picotin est un petit âne tout noir. Il a de longues oreilles, un museau gris et une langue rose.  Et il gambade joyeusement dans un pré.
 Picotin à Paris
 Picotin et nénuphar
 Picotin apprend à compter (1955)
 Picotin autour du monde (1959)
-Picotin le petit âne (1954)[1]
+Picotin le petit âne (1954)
 Picotin musicien (1954)
 Picotin et ses amis (1955)
-Ces aventures ont été rééditées dans les années 2000 dans la collection un petit livre d'argent aux éditions Deux Coqs d'Or [2]. 
+Ces aventures ont été rééditées dans les années 2000 dans la collection un petit livre d'argent aux éditions Deux Coqs d'Or . 
 Aujourd'hui "Picotin" est un surnom affectueux donné aux animaux de compagnie et d'élevage. 
 </t>
         </is>
@@ -521,7 +533,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 ↑ a et b Mulubrok
